--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Member" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,11 +50,6 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -66,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,21 +74,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -161,7 +141,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -529,61 +509,61 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.7109375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="37" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="3" min="3" max="3"/>
-    <col width="14.140625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="30.42578125" customWidth="1" style="4" min="5" max="5"/>
+    <col width="20.88671875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.109375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="30.44140625" customWidth="1" style="4" min="5" max="5"/>
     <col width="25" customWidth="1" style="4" min="6" max="6"/>
-    <col width="35.140625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="14.140625" bestFit="1" customWidth="1" style="2" min="8" max="10"/>
+    <col width="35.109375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="14.109375" bestFit="1" customWidth="1" style="2" min="8" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" s="2">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Nama</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Alamat</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tanggal Lahir</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Identitas</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Nomor identitas</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Nomor HP</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -662,20 +642,198 @@
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" s="2">
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>madiun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25/04/2000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>3577032504000004</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>89619590969</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" s="2">
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tali </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>karang anyar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11/11/1111</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1111111111111111</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>8123412313</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>tali</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="2">
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Repi </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sragen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11/11/1112</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1231231311111111</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>8123098444</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>repi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="19.5" customHeight="1" s="2">
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ura </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>jember</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11/22/3333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1231231231231231</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>81091123123</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ura</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng2 </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>madiun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1111111111111111 </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0812131231 </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>eng123</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,15 +852,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Kode</t>
         </is>
@@ -773,30 +931,30 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Judul CD</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Stok</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Stok tersedia</t>
         </is>
@@ -822,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -845,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -868,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -891,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -914,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -937,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -951,76 +1109,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.28515625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="12.85546875" customWidth="1" style="2" min="5" max="5"/>
-    <col width="15.85546875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="15.6640625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.6640625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="14.5546875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="16.5546875" customWidth="1" style="2" min="5" max="5"/>
+    <col width="16" customWidth="1" style="2" min="6" max="6"/>
+    <col width="15.6640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="12.33203125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="23.6640625" customWidth="1" style="2" min="9" max="9"/>
+    <col width="15.88671875" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Nama</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>No Identitas</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Kode transaksi</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Judul CD</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Tanggal Sewa</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Tanggal Kembali</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>Tanggal Pengembalian</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>Harga Sewa</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>Denda</t>
         </is>
       </c>
-      <c r="L1" s="8" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>Total Harga</t>
         </is>
@@ -1091,10 +1255,8 @@
           <t xml:space="preserve">Bilal </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
+      <c r="C3" t="n">
+        <v>321</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1135,6 +1297,676 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilal </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>321</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3B4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annabelle </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3577032504000004</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conjuring 2019 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dikembalikan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3577032504000004</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5A5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Fault In Our Stars </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>35000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3577032504000004</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6C2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr. Bean </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tali </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1111111111111111</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7A1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titanic </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tali </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1111111111111111</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8C2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr. Bean </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Repi </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1231231311111111</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9A5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Fault In Our Stars </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Repi </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1231231311111111</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10C2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr. Bean </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng2 </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1111111111111111</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11A1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titanic </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eng2 </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1111111111111111</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12D6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iron Man </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilal </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>321</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13B3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conjuring 2019 </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilal </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">321 </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14B4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annabelle </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Disewa</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
